--- a/wcsa5seleniumproject/data/ActitimeTestData.xlsx
+++ b/wcsa5seleniumproject/data/ActitimeTestData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cfdfed1d19754a0e/Desktop/wcsa5workspace/wcsa5seleniumproject/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sneha\git\WCSA5Repository\wcsa5seleniumproject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:801_{B49AE549-85FF-4D17-B1DB-BFEFA059C5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4557948-D747-47C6-B2AC-E99F7B3C1886}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6472FA-1EEB-4957-9E9E-89D46685263A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="validcreds" sheetId="1" r:id="rId1"/>
-    <sheet name="Invalidcreds" sheetId="2" r:id="rId2"/>
+    <sheet name="invalidcreds" sheetId="3" r:id="rId2"/>
+    <sheet name="managercreds" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>USERNAME</t>
   </si>
@@ -50,6 +51,24 @@
   </si>
   <si>
     <t>manager1</t>
+  </si>
+  <si>
+    <t>RETYPE PASSWORD</t>
+  </si>
+  <si>
+    <t>FIRST NAME</t>
+  </si>
+  <si>
+    <t>LAST NAME</t>
+  </si>
+  <si>
+    <t>TestCase1</t>
+  </si>
+  <si>
+    <t>sneha</t>
+  </si>
+  <si>
+    <t>kshirsagar</t>
   </si>
 </sst>
 </file>
@@ -402,7 +421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -446,53 +465,105 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE0EAC0-E636-4801-8EC4-F807B4F22053}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A46C066-697D-4785-B0E9-16777799AD6B}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE0EAC0-E636-4801-8EC4-F807B4F22053}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
+      </c>
+      <c r="C2">
+        <v>123</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
